--- a/setups/vestibular chair/vPrime/lookup/vPrime Measurement.xlsx
+++ b/setups/vestibular chair/vPrime/lookup/vPrime Measurement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjheckman/Documents/Code/Gitlab/pbtoolbox/setups/vestibular chair/vPrime/lookup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF6D182-0740-6247-BE7E-ECF4702236AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C0E8E3-FB95-5146-BFDF-AB43AB93EDA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17060" yWindow="460" windowWidth="34140" windowHeight="27460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1349,7 +1349,7 @@
   <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/setups/vestibular chair/vPrime/lookup/vPrime Measurement.xlsx
+++ b/setups/vestibular chair/vPrime/lookup/vPrime Measurement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjheckman/Documents/Code/Gitlab/pbtoolbox/setups/vestibular chair/vPrime/lookup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBBAFFA-6C7F-DF43-B61E-51BEF80834D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73153645-D475-FB4A-90C7-9BD7135B35F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="188" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1918,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="C18" s="10">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>35</v>
+        <v>-35</v>
       </c>
       <c r="C19" s="10">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="C20" s="10">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="C21" s="10">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="C22" s="10">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C23" s="10">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="C24" s="10">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="C25" s="10">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>-35</v>
+        <v>35</v>
       </c>
       <c r="C26" s="10">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="C27" s="10">
         <v>0</v>

--- a/setups/vestibular chair/vPrime/lookup/vPrime Measurement.xlsx
+++ b/setups/vestibular chair/vPrime/lookup/vPrime Measurement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjheckman/Documents/Code/Gitlab/pbtoolbox/setups/vestibular chair/vPrime/lookup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73153645-D475-FB4A-90C7-9BD7135B35F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B27386-BD8D-C54D-9E30-1D997AA7B425}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="188" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="188" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="E18" s="10">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>35</v>
+        <v>-35</v>
       </c>
       <c r="E19" s="10">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E20" s="10">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="E21" s="10">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E22" s="10">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E23" s="10">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="E24" s="10">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E25" s="10">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>-35</v>
+        <v>35</v>
       </c>
       <c r="E26" s="10">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="E27" s="10">
         <v>0</v>

--- a/setups/vestibular chair/vPrime/lookup/vPrime Measurement.xlsx
+++ b/setups/vestibular chair/vPrime/lookup/vPrime Measurement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjheckman/Documents/Code/Gitlab/pbtoolbox/setups/vestibular chair/vPrime/lookup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B27386-BD8D-C54D-9E30-1D997AA7B425}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CFFAFC-23C7-3D4C-85F5-7DF201A75916}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1462,8 +1462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="188" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D27"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
